--- a/excels/config/game/rune_system.xlsx
+++ b/excels/config/game/rune_system.xlsx
@@ -1359,11 +1359,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{52B91F96-1540-4905-ABF4-C99ED31120AC}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3BA1B498-9286-4905-8CFE-ABD414B3F1CF}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8CF2DD3E-7F87-4527-A129-CFBC54379936}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{94E5F8EF-C9BB-45E7-8B3E-A7614F553AA7}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -2320,7 +2320,7 @@
         <v>74</v>
       </c>
       <c r="I19" s="12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -2351,8 +2351,8 @@
       <c r="H20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="13">
-        <v>50</v>
+      <c r="I20" s="12">
+        <v>100</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -2384,7 +2384,7 @@
         <v>80</v>
       </c>
       <c r="I21" s="12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -2415,8 +2415,8 @@
       <c r="H22" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="13">
-        <v>50</v>
+      <c r="I22" s="12">
+        <v>100</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -2448,7 +2448,7 @@
         <v>84</v>
       </c>
       <c r="I23" s="12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -2456,7 +2456,7 @@
       <c r="M23" s="23"/>
       <c r="N23" s="19"/>
     </row>
-    <row r="24" ht="14.25" spans="1:14">
+    <row r="24" spans="1:14">
       <c r="A24" s="16" t="s">
         <v>85</v>
       </c>
@@ -2479,8 +2479,8 @@
       <c r="H24" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="17">
-        <v>50</v>
+      <c r="I24" s="12">
+        <v>100</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>

--- a/excels/config/game/rune_system.xlsx
+++ b/excels/config/game/rune_system.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
   <si>
     <t>key</t>
   </si>
@@ -251,6 +251,9 @@
     <t>火焰多重</t>
   </si>
   <si>
+    <t>计数型技能额外附带点燃效果，可点燃被灼烧单位，直接结算灼烧伤害。</t>
+  </si>
+  <si>
     <t>r_1&amp;5,r_11&amp;1</t>
   </si>
   <si>
@@ -260,34 +263,238 @@
     <t>火焰拓宽</t>
   </si>
   <si>
+    <t>范围型技能附带灼烧，持续3秒，每秒造成攻击力25%（对应技能元素）伤害。</t>
+  </si>
+  <si>
+    <t>r_2&amp;5,r_11&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_3</t>
+  </si>
+  <si>
+    <t>火焰亲和</t>
+  </si>
+  <si>
+    <t>增加10%的全元素穿透，如果该技能是火元素技能，则额外增加100%的伤害。</t>
+  </si>
+  <si>
+    <t>r_5&amp;5,r_11&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_4</t>
+  </si>
+  <si>
+    <t>烈火铠甲</t>
+  </si>
+  <si>
+    <t>受到伤害时，会立即反弹自身攻击力50%的火元素伤害。</t>
+  </si>
+  <si>
+    <t>r_7&amp;5,r_11&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_5</t>
+  </si>
+  <si>
+    <t>烈焰召唤</t>
+  </si>
+  <si>
+    <t>召唤物消失时，对原地直径300码的范围造攻击力200%的火元素伤害。</t>
+  </si>
+  <si>
+    <t>r_8&amp;5,r_11&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_6</t>
+  </si>
+  <si>
+    <t>闪电多重</t>
+  </si>
+  <si>
+    <t>计数型技能额外附带25%雷元素伤害，如果该技能是雷元素技能则额外技能数量+2。</t>
+  </si>
+  <si>
     <t>r_1&amp;5,r_12&amp;1</t>
   </si>
   <si>
-    <t>r_adv_3</t>
-  </si>
-  <si>
-    <t>火焰XX</t>
+    <t>r_adv_7</t>
+  </si>
+  <si>
+    <t>雷电惩戒</t>
+  </si>
+  <si>
+    <t>范围型技能造成伤害时，25%概率对敌人造成1秒的麻痹效果。</t>
+  </si>
+  <si>
+    <t>r_2&amp;5,r_12&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_8</t>
+  </si>
+  <si>
+    <t>雷电亲和</t>
+  </si>
+  <si>
+    <t>增加10%全元素穿透，如果该技能是雷元素技能，则额外增加25%的雷元素穿透。</t>
+  </si>
+  <si>
+    <t>r_5&amp;5,r_12&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_9</t>
+  </si>
+  <si>
+    <t>闪电铠甲</t>
+  </si>
+  <si>
+    <t>受到伤害时，会让目标立即被麻痹1秒。</t>
+  </si>
+  <si>
+    <t>r_7&amp;5,r_12&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_10</t>
+  </si>
+  <si>
+    <t>雷霆召唤</t>
+  </si>
+  <si>
+    <t>召唤物生成时，延迟1秒之后降下雷霆，对原地直径300码的范围造成攻击力200%的雷元素伤害。</t>
+  </si>
+  <si>
+    <t>r_8&amp;5,r_12&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_11</t>
+  </si>
+  <si>
+    <t>冰霜多重</t>
+  </si>
+  <si>
+    <t>技术性技能额外附带30%减速效果，如果该技能是冰元素技能则30%概率造成冰冻1秒。</t>
   </si>
   <si>
     <t>r_1&amp;5,r_13&amp;1</t>
   </si>
   <si>
-    <t>r_adv_4</t>
+    <t>r_adv_12</t>
+  </si>
+  <si>
+    <t>寒冰领域</t>
+  </si>
+  <si>
+    <t>范围型技能造成伤害时，25%概率对敌人造成减速30%的效果，对减速的单位有30%概率造成冰冻1秒。</t>
+  </si>
+  <si>
+    <t>r_2&amp;5,r_13&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_13</t>
+  </si>
+  <si>
+    <t>寒冰亲和</t>
+  </si>
+  <si>
+    <t>增加10%全元素穿透，如果该技能是冰元素技能，则额外增加25%的冰元素穿透。</t>
+  </si>
+  <si>
+    <t>r_5&amp;5,r_13&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_14</t>
+  </si>
+  <si>
+    <t>寒冰铠甲</t>
+  </si>
+  <si>
+    <t>受到伤害时，会让目标立即被冰冻1秒。</t>
+  </si>
+  <si>
+    <t>r_7&amp;5,r_13&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_15</t>
+  </si>
+  <si>
+    <t>寒冰召唤</t>
+  </si>
+  <si>
+    <t>召唤物造成伤害时会附带30%减速效果，每造成5次伤害时，会造成直径300码的范围造成攻击力50%冰元素伤害。</t>
+  </si>
+  <si>
+    <t>r_8&amp;5,r_13&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_16</t>
+  </si>
+  <si>
+    <t>飓风多重</t>
+  </si>
+  <si>
+    <t>计数型技能数量额外+3，但造成伤害会降低40%。如果该技能是风元素技能，则不会降低伤害。</t>
   </si>
   <si>
     <t>r_1&amp;5,r_14&amp;1</t>
   </si>
   <si>
-    <t>r_adv_5</t>
-  </si>
-  <si>
-    <t>r_1&amp;5,r_15&amp;1</t>
-  </si>
-  <si>
-    <t>r_adv_6</t>
-  </si>
-  <si>
-    <t>r_1&amp;5,r_16&amp;1</t>
+    <t>r_adv_17</t>
+  </si>
+  <si>
+    <t>狂风领域</t>
+  </si>
+  <si>
+    <t>范围型伤害技能造成伤害时3秒内，敌军受到的任意来源伤害增加15%。</t>
+  </si>
+  <si>
+    <t>r_2&amp;5,r_14&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_18</t>
+  </si>
+  <si>
+    <t>飓风亲和</t>
+  </si>
+  <si>
+    <t>增加10%全元素穿透，如果该技能是风元素技能，则额外增加25%的风元素穿透。</t>
+  </si>
+  <si>
+    <t>r_5&amp;5,r_14&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_19</t>
+  </si>
+  <si>
+    <t>飓风铠甲</t>
+  </si>
+  <si>
+    <t>敌人靠近自身直径范围100码时，会被击退300码。（10秒内只生效一次）</t>
+  </si>
+  <si>
+    <t>r_7&amp;5,r_14&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_20</t>
+  </si>
+  <si>
+    <t>飓风召唤</t>
+  </si>
+  <si>
+    <t>召唤物造成伤害时时会击退敌人50码。</t>
+  </si>
+  <si>
+    <t>r_8&amp;5,r_14&amp;1</t>
+  </si>
+  <si>
+    <t>r_adv_21</t>
+  </si>
+  <si>
+    <t>光芒万丈</t>
+  </si>
+  <si>
+    <t>造成所有伤害均会附带50%的光元素伤害，且回复该次伤害实际数值的10%血量。</t>
+  </si>
+  <si>
+    <t>r_1&amp;10,r_15&amp;1</t>
   </si>
 </sst>
 </file>
@@ -768,23 +975,27 @@
       <left style="thick">
         <color rgb="FF595959"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
@@ -830,13 +1041,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thick">
         <color rgb="FF595959"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
@@ -1091,9 +1304,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1140,10 +1356,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,7 +1395,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1359,11 +1593,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3BA1B498-9286-4905-8CFE-ABD414B3F1CF}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DCB16BFA-4AFB-4328-8932-FF5481780EB8}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{94E5F8EF-C9BB-45E7-8B3E-A7614F553AA7}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6E7D9264-9124-4C68-B22D-94FD230AC6FE}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -1627,868 +1861,1375 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.675" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="52.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="57.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.3416666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.675" style="2" customWidth="1"/>
+    <col min="3" max="3" width="94.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="52.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="57.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.3416666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:14">
-      <c r="A2" s="5" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
         <v>2</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="25">
         <v>3</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:14">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F18" si="0">IF(D3=0,100,0)</f>
         <v>100</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="19"/>
-    </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:14">
-      <c r="A4" s="10" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="12">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="19"/>
-    </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:14">
-      <c r="A5" s="8" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" ht="35" customHeight="1" spans="1:14">
-      <c r="A6" s="10" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <v>5</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:14">
-      <c r="A7" s="8" t="s">
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="19"/>
-    </row>
-    <row r="8" ht="35" customHeight="1" spans="1:14">
-      <c r="A8" s="10" t="s">
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="12">
         <v>5</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="19"/>
-    </row>
-    <row r="9" ht="35" customHeight="1" spans="1:14">
-      <c r="A9" s="8" t="s">
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>5</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" ht="35" customHeight="1" spans="1:14">
-      <c r="A10" s="10" t="s">
+      <c r="L9" s="10"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="12">
         <v>5</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="19"/>
-    </row>
-    <row r="11" ht="35" customHeight="1" spans="1:14">
-      <c r="A11" s="8" t="s">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>5</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" ht="18.5" customHeight="1" spans="1:14">
-      <c r="A12" s="10" t="s">
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="12">
         <v>3</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:14">
-      <c r="A13" s="8" t="s">
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>3</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="19"/>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:14">
-      <c r="A14" s="10" t="s">
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="12">
         <v>3</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="19"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:14">
-      <c r="A15" s="8" t="s">
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>3</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:14">
-      <c r="A16" s="10" t="s">
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="12">
         <v>3</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="19"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:14">
-      <c r="A17" s="8" t="s">
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>3</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="19"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:14">
-      <c r="A18" s="10" t="s">
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A18" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="12">
         <v>3</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="19"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="14" t="s">
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>1</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="12">
-        <v>100</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="19"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="15" t="s">
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="I19" s="13">
+        <v>100</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="12">
-        <v>100</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="19"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>1</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="I20" s="14">
+        <v>100</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="12">
-        <v>100</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="19"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13" t="s">
+      <c r="C21" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="12">
-        <v>100</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="19"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="14" t="s">
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>1</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="I21" s="13">
+        <v>100</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A22" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="12">
-        <v>100</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="B22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="14">
+        <v>100</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="13">
+        <v>100</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A24" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17">
-        <v>1</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="12">
-        <v>100</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="19"/>
-    </row>
-    <row r="25" ht="14.25"/>
+        <v>92</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="14">
+        <v>100</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A25" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="13">
+        <v>100</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="30"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A26" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="14">
+        <v>100</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A27" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="13">
+        <v>100</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="30"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A28" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="14">
+        <v>100</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="13">
+        <v>100</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="30"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A30" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="14">
+        <v>100</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="13">
+        <v>100</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="30"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A32" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="14">
+        <v>100</v>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="31"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A33" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="13">
+        <v>100</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="30"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A34" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="14">
+        <v>100</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="31"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="13">
+        <v>100</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="30"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A36" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14">
+        <v>1</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="14">
+        <v>100</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A37" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" s="13">
+        <v>100</v>
+      </c>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="30"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A38" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" s="14">
+        <v>100</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A39" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="22">
+        <v>1</v>
+      </c>
+      <c r="E39" s="22">
+        <v>0</v>
+      </c>
+      <c r="F39" s="22">
+        <v>0</v>
+      </c>
+      <c r="G39" s="22">
+        <v>1</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" s="22">
+        <v>100</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="32"/>
+    </row>
+    <row r="40" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/config/game/rune_system.xlsx
+++ b/excels/config/game/rune_system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="rune_system" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
   <si>
     <t>key</t>
   </si>
@@ -62,6 +62,12 @@
     <t>index</t>
   </si>
   <si>
+    <t>#Loccustom_rune_{}</t>
+  </si>
+  <si>
+    <t>#Loccustom_rune_{}_Description</t>
+  </si>
+  <si>
     <t>IsAdv</t>
   </si>
   <si>
@@ -89,7 +95,7 @@
     <t>r_1</t>
   </si>
   <si>
-    <t>多重效应+5</t>
+    <t>多重效应</t>
   </si>
   <si>
     <t>计数型技能数量额外+1</t>
@@ -98,37 +104,31 @@
     <t>pass</t>
   </si>
   <si>
-    <t>!damage_mul 20</t>
+    <t>skv_count 1</t>
   </si>
   <si>
     <t>r_2</t>
   </si>
   <si>
-    <t>范围拓展+5</t>
+    <t>范围拓展</t>
   </si>
   <si>
     <t>范围型技能范围+20%</t>
   </si>
   <si>
-    <t>radius 50</t>
-  </si>
-  <si>
     <t>r_3</t>
   </si>
   <si>
-    <t>延长时效+5</t>
+    <t>延长时效</t>
   </si>
   <si>
     <t>持续型技能持续时间+1秒</t>
   </si>
   <si>
-    <t>duration 0.4</t>
-  </si>
-  <si>
     <t>r_4</t>
   </si>
   <si>
-    <t>成长快乐+5</t>
+    <t>成长快乐</t>
   </si>
   <si>
     <t>成长型技能成长效果+20%</t>
@@ -137,7 +137,7 @@
     <t>r_5</t>
   </si>
   <si>
-    <t>伤害增益+5</t>
+    <t>伤害增益</t>
   </si>
   <si>
     <t>伤害型技能伤害结果+20%</t>
@@ -146,7 +146,7 @@
     <t>r_6</t>
   </si>
   <si>
-    <t>以钱生钱+5</t>
+    <t>以钱生钱</t>
   </si>
   <si>
     <t>理财型技能收益效果+20%</t>
@@ -155,19 +155,16 @@
     <t>r_7</t>
   </si>
   <si>
-    <t>防御为主+5</t>
+    <t>防御为主</t>
   </si>
   <si>
     <t>防御型技能效果+20%</t>
   </si>
   <si>
-    <t>!damage_mul -30</t>
-  </si>
-  <si>
     <t>r_8</t>
   </si>
   <si>
-    <t>精通召唤+5</t>
+    <t>精通召唤</t>
   </si>
   <si>
     <t>召唤型技能召唤物存在时间+1秒</t>
@@ -176,7 +173,7 @@
     <t>r_9</t>
   </si>
   <si>
-    <t>收益快感+5</t>
+    <t>收益快感</t>
   </si>
   <si>
     <t>收益型技能效果+20%</t>
@@ -185,7 +182,7 @@
     <t>r_10</t>
   </si>
   <si>
-    <t>急速增益+3</t>
+    <t>急速增益</t>
   </si>
   <si>
     <t>技能急速+10</t>
@@ -194,7 +191,7 @@
     <t>r_11</t>
   </si>
   <si>
-    <t>火元素亲和+3</t>
+    <t>火元素亲和</t>
   </si>
   <si>
     <t>火元素技能效果+10%</t>
@@ -203,7 +200,7 @@
     <t>r_12</t>
   </si>
   <si>
-    <t>雷元素亲和+3</t>
+    <t>雷元素亲和</t>
   </si>
   <si>
     <t>雷元素技能效果+10%</t>
@@ -212,7 +209,7 @@
     <t>r_13</t>
   </si>
   <si>
-    <t>冰元素亲和+3</t>
+    <t>冰元素亲和</t>
   </si>
   <si>
     <t>冰元素技能效果+10%</t>
@@ -221,7 +218,7 @@
     <t>r_14</t>
   </si>
   <si>
-    <t>风元素亲和+3</t>
+    <t>风元素亲和</t>
   </si>
   <si>
     <t>风元素技能效果+10%</t>
@@ -507,7 +504,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,12 +516,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1173,138 +1164,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1329,80 +1320,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1593,11 +1551,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DCB16BFA-4AFB-4328-8932-FF5481780EB8}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0EB3A6C8-7ED1-4B25-AA58-C164B732177B}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6E7D9264-9124-4C68-B22D-94FD230AC6FE}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{343C31A1-F359-4D18-826B-669657C8F3F8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -1864,29 +1822,28 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.675" style="2" customWidth="1"/>
-    <col min="3" max="3" width="94.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="52.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="57.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.3416666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.1083333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.7416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.55833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.7416666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.0333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.0583333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.3166666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.0416666666667" style="2" customWidth="1"/>
+    <col min="12" max="13" width="3.96666666666667" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38" customHeight="1" spans="1:14">
+    <row r="1" ht="35" customHeight="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1919,1315 +1876,1291 @@
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="M1" s="18"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="8">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="I2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9">
         <v>2</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="19">
         <v>3</v>
       </c>
-      <c r="N2" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
         <f t="shared" ref="F3:F18" si="0">IF(D3=0,100,0)</f>
         <v>100</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A4" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>5</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>5</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A6" s="11" t="s">
+      <c r="H5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="24"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A7" s="9" t="s">
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <v>5</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="24"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A8" s="11" t="s">
+      <c r="H7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <v>5</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A9" s="9" t="s">
+      <c r="H8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="11">
         <v>5</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
+      <c r="H9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="B11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="11">
         <v>5</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="H11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G11" s="10">
-        <v>5</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="G12" s="9">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="B13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="11">
         <v>3</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="H13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="B14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="9">
         <v>3</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="H14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="B15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="11">
         <v>3</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="H15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="B16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="9">
         <v>3</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="H16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="B17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="11">
         <v>3</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="H17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="B18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="9">
         <v>3</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="H18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="24"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13" t="s">
+      <c r="I19" s="11">
+        <v>100</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A20" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="13">
-        <v>100</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A20" s="16" t="s">
+      <c r="B20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="14">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1</v>
-      </c>
-      <c r="H20" s="14" t="s">
+      <c r="I20" s="9">
+        <v>100</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="14">
-        <v>100</v>
-      </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="24"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13" t="s">
+      <c r="I21" s="11">
+        <v>100</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="13">
-        <v>100</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="24"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A22" s="16" t="s">
+      <c r="B22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="14">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14">
-        <v>1</v>
-      </c>
-      <c r="H22" s="14" t="s">
+      <c r="I22" s="9">
+        <v>100</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="14">
-        <v>100</v>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="24"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
-        <v>1</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="I23" s="11">
+        <v>100</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A24" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="13">
-        <v>100</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A24" s="16" t="s">
+      <c r="B24" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="14">
-        <v>1</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="I24" s="9">
+        <v>100</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I24" s="14">
-        <v>100</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="24"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A25" s="15" t="s">
+      <c r="B25" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="C25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13" t="s">
+      <c r="I25" s="11">
+        <v>100</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A26" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I25" s="13">
-        <v>100</v>
-      </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="30"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A26" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="14">
-        <v>1</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="9">
+        <v>100</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="14">
-        <v>100</v>
-      </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="31"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="C27" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="I27" s="11">
+        <v>100</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A28" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="13">
-        <v>100</v>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A28" s="16" t="s">
+      <c r="B28" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0</v>
-      </c>
-      <c r="F28" s="14">
-        <v>0</v>
-      </c>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="I28" s="9">
+        <v>100</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A29" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="14">
-        <v>100</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A29" s="15" t="s">
+      <c r="B29" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="13">
-        <v>1</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13" t="s">
+      <c r="I29" s="11">
+        <v>100</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="13">
-        <v>100</v>
-      </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="30"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A30" s="16" t="s">
+      <c r="B30" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="C30" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="14">
-        <v>1</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0</v>
-      </c>
-      <c r="F30" s="14">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14">
-        <v>1</v>
-      </c>
-      <c r="H30" s="14" t="s">
+      <c r="I30" s="9">
+        <v>100</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I30" s="14">
-        <v>100</v>
-      </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="31"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A31" s="15" t="s">
+      <c r="B31" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="C31" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
-        <v>1</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="I31" s="11">
+        <v>100</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A32" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="13">
-        <v>100</v>
-      </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="30"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A32" s="16" t="s">
+      <c r="B32" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="14">
-        <v>1</v>
-      </c>
-      <c r="E32" s="14">
-        <v>0</v>
-      </c>
-      <c r="F32" s="14">
-        <v>0</v>
-      </c>
-      <c r="G32" s="14">
-        <v>1</v>
-      </c>
-      <c r="H32" s="14" t="s">
+      <c r="I32" s="9">
+        <v>100</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="19"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:13">
+      <c r="A33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="14">
-        <v>100</v>
-      </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="31"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A33" s="15" t="s">
+      <c r="B33" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="C33" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
-        <v>0</v>
-      </c>
-      <c r="G33" s="13">
-        <v>1</v>
-      </c>
-      <c r="H33" s="13" t="s">
+      <c r="I33" s="11">
+        <v>100</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A34" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="13">
-        <v>100</v>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="30"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A34" s="16" t="s">
+      <c r="B34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="C34" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="14">
-        <v>1</v>
-      </c>
-      <c r="E34" s="14">
-        <v>0</v>
-      </c>
-      <c r="F34" s="14">
-        <v>0</v>
-      </c>
-      <c r="G34" s="14">
-        <v>1</v>
-      </c>
-      <c r="H34" s="14" t="s">
+      <c r="I34" s="9">
+        <v>100</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A35" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I34" s="14">
-        <v>100</v>
-      </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="31"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A35" s="15" t="s">
+      <c r="B35" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13">
-        <v>0</v>
-      </c>
-      <c r="F35" s="13">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13">
-        <v>1</v>
-      </c>
-      <c r="H35" s="13" t="s">
+      <c r="I35" s="11">
+        <v>100</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A36" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I35" s="13">
-        <v>100</v>
-      </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="30"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A36" s="16" t="s">
+      <c r="B36" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="C36" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="14">
-        <v>1</v>
-      </c>
-      <c r="E36" s="14">
-        <v>0</v>
-      </c>
-      <c r="F36" s="14">
-        <v>0</v>
-      </c>
-      <c r="G36" s="14">
-        <v>1</v>
-      </c>
-      <c r="H36" s="14" t="s">
+      <c r="I36" s="9">
+        <v>100</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A37" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I36" s="14">
-        <v>100</v>
-      </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="31"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A37" s="15" t="s">
+      <c r="B37" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="C37" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
-      <c r="F37" s="13">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
-        <v>1</v>
-      </c>
-      <c r="H37" s="13" t="s">
+      <c r="I37" s="11">
+        <v>100</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A38" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I37" s="13">
-        <v>100</v>
-      </c>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="30"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A38" s="16" t="s">
+      <c r="B38" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="C38" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="14">
-        <v>1</v>
-      </c>
-      <c r="E38" s="14">
-        <v>0</v>
-      </c>
-      <c r="F38" s="14">
-        <v>0</v>
-      </c>
-      <c r="G38" s="14">
-        <v>1</v>
-      </c>
-      <c r="H38" s="14" t="s">
+      <c r="I38" s="9">
+        <v>100</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
+      <c r="A39" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="I38" s="14">
-        <v>100</v>
-      </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="31"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A39" s="20" t="s">
+      <c r="B39" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="D39" s="16">
+        <v>1</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16">
+        <v>1</v>
+      </c>
+      <c r="H39" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="22">
-        <v>1</v>
-      </c>
-      <c r="E39" s="22">
-        <v>0</v>
-      </c>
-      <c r="F39" s="22">
-        <v>0</v>
-      </c>
-      <c r="G39" s="22">
-        <v>1</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" s="22">
-        <v>100</v>
-      </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="32"/>
+      <c r="I39" s="16">
+        <v>100</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="21"/>
     </row>
     <row r="40" ht="14.25"/>
   </sheetData>

--- a/excels/config/game/rune_system.xlsx
+++ b/excels/config/game/rune_system.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="170">
   <si>
     <t>key</t>
   </si>
@@ -116,6 +116,9 @@
     <t>范围型技能范围+20%</t>
   </si>
   <si>
+    <t>%skv_radius 20</t>
+  </si>
+  <si>
     <t>r_3</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>持续型技能持续时间+1秒</t>
   </si>
   <si>
+    <t>skv_duration 1</t>
+  </si>
+  <si>
     <t>r_4</t>
   </si>
   <si>
@@ -134,6 +140,9 @@
     <t>成长型技能成长效果+20%</t>
   </si>
   <si>
+    <t>%skv_growth 20</t>
+  </si>
+  <si>
     <t>r_5</t>
   </si>
   <si>
@@ -143,6 +152,9 @@
     <t>伤害型技能伤害结果+20%</t>
   </si>
   <si>
+    <t>%skv_damage 20</t>
+  </si>
+  <si>
     <t>r_6</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
     <t>理财型技能收益效果+20%</t>
   </si>
   <si>
+    <t>%skv_financing 20</t>
+  </si>
+  <si>
     <t>r_7</t>
   </si>
   <si>
@@ -161,6 +176,9 @@
     <t>防御型技能效果+20%</t>
   </si>
   <si>
+    <t>%skv_defense 20</t>
+  </si>
+  <si>
     <t>r_8</t>
   </si>
   <si>
@@ -170,6 +188,9 @@
     <t>召唤型技能召唤物存在时间+1秒</t>
   </si>
   <si>
+    <t>skv_summoned_duration 1</t>
+  </si>
+  <si>
     <t>r_9</t>
   </si>
   <si>
@@ -179,6 +200,9 @@
     <t>收益型技能效果+20%</t>
   </si>
   <si>
+    <t>%skv_income 20</t>
+  </si>
+  <si>
     <t>r_10</t>
   </si>
   <si>
@@ -188,6 +212,9 @@
     <t>技能急速+10</t>
   </si>
   <si>
+    <t>skv_haste 10</t>
+  </si>
+  <si>
     <t>r_11</t>
   </si>
   <si>
@@ -197,6 +224,9 @@
     <t>火元素技能效果+10%</t>
   </si>
   <si>
+    <t>skv_fire 10</t>
+  </si>
+  <si>
     <t>r_12</t>
   </si>
   <si>
@@ -206,6 +236,9 @@
     <t>雷元素技能效果+10%</t>
   </si>
   <si>
+    <t>skv_thunder 10</t>
+  </si>
+  <si>
     <t>r_13</t>
   </si>
   <si>
@@ -215,6 +248,9 @@
     <t>冰元素技能效果+10%</t>
   </si>
   <si>
+    <t>skv_ice 10</t>
+  </si>
+  <si>
     <t>r_14</t>
   </si>
   <si>
@@ -224,6 +260,9 @@
     <t>风元素技能效果+10%</t>
   </si>
   <si>
+    <t>skv_wind 10</t>
+  </si>
+  <si>
     <t>r_15</t>
   </si>
   <si>
@@ -233,6 +272,9 @@
     <t>光元素技能效果+25%</t>
   </si>
   <si>
+    <t>skv_light 25</t>
+  </si>
+  <si>
     <t>r_16</t>
   </si>
   <si>
@@ -240,6 +282,9 @@
   </si>
   <si>
     <t>暗元素技能效果+25%</t>
+  </si>
+  <si>
+    <t>skv_dark 25</t>
   </si>
   <si>
     <t>r_adv_1</t>
@@ -1551,11 +1596,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0EB3A6C8-7ED1-4B25-AA58-C164B732177B}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{8EC74274-C5EA-4004-A452-76E467B71A21}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{343C31A1-F359-4D18-826B-669657C8F3F8}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{085B7891-292A-483D-AC19-98E11FAADE8D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -1822,7 +1867,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1837,7 +1882,7 @@
     <col min="8" max="8" width="21.0333333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.0583333333333" style="2" customWidth="1"/>
     <col min="10" max="10" width="21.3166666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.0416666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="2" customWidth="1"/>
     <col min="12" max="13" width="3.96666666666667" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
@@ -1989,19 +2034,21 @@
         <v>0</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="L4" s="9"/>
       <c r="M4" s="19"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -2023,19 +2070,21 @@
         <v>0</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="M5" s="20"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A6" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -2057,19 +2106,21 @@
         <v>0</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -2091,19 +2142,21 @@
         <v>0</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="L7" s="11"/>
       <c r="M7" s="20"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A8" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -2125,19 +2178,21 @@
         <v>0</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="19"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A9" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -2159,19 +2214,21 @@
         <v>0</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="L9" s="11"/>
       <c r="M9" s="20"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A10" s="13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -2193,19 +2250,21 @@
         <v>0</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A11" s="10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -2227,19 +2286,21 @@
         <v>0</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L11" s="11"/>
       <c r="M11" s="20"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A12" s="13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -2261,19 +2322,21 @@
         <v>0</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="19"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A13" s="10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
@@ -2295,19 +2358,21 @@
         <v>0</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="L13" s="11"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -2329,19 +2394,21 @@
         <v>0</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="19"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A15" s="10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -2363,19 +2430,21 @@
         <v>0</v>
       </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="L15" s="11"/>
       <c r="M15" s="20"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A16" s="13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -2397,19 +2466,21 @@
         <v>0</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="19"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A17" s="10" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D17" s="11">
         <v>0</v>
@@ -2431,19 +2502,21 @@
         <v>0</v>
       </c>
       <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="L17" s="11"/>
       <c r="M17" s="20"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A18" s="13" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -2465,19 +2538,21 @@
         <v>0</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="K18" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="L18" s="9"/>
       <c r="M18" s="19"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A19" s="10" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D19" s="11">
         <v>1</v>
@@ -2492,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I19" s="11">
         <v>100</v>
@@ -2504,13 +2579,13 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A20" s="13" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -2525,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="I20" s="9">
         <v>100</v>
@@ -2537,13 +2612,13 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A21" s="10" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D21" s="11">
         <v>1</v>
@@ -2558,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I21" s="11">
         <v>100</v>
@@ -2570,13 +2645,13 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A22" s="13" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -2591,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I22" s="9">
         <v>100</v>
@@ -2603,13 +2678,13 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A23" s="10" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D23" s="11">
         <v>1</v>
@@ -2624,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I23" s="11">
         <v>100</v>
@@ -2636,13 +2711,13 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A24" s="13" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -2657,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I24" s="9">
         <v>100</v>
@@ -2669,13 +2744,13 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A25" s="10" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D25" s="11">
         <v>1</v>
@@ -2690,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I25" s="11">
         <v>100</v>
@@ -2702,13 +2777,13 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A26" s="13" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -2723,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I26" s="9">
         <v>100</v>
@@ -2735,13 +2810,13 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A27" s="10" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
@@ -2756,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="I27" s="11">
         <v>100</v>
@@ -2768,13 +2843,13 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A28" s="13" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
@@ -2789,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="I28" s="9">
         <v>100</v>
@@ -2801,13 +2876,13 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A29" s="10" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
@@ -2822,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I29" s="11">
         <v>100</v>
@@ -2834,13 +2909,13 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A30" s="13" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
@@ -2855,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="I30" s="9">
         <v>100</v>
@@ -2867,13 +2942,13 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A31" s="10" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D31" s="11">
         <v>1</v>
@@ -2888,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I31" s="11">
         <v>100</v>
@@ -2900,13 +2975,13 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A32" s="13" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
@@ -2921,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="I32" s="9">
         <v>100</v>
@@ -2933,13 +3008,13 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:13">
       <c r="A33" s="10" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
@@ -2954,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I33" s="11">
         <v>100</v>
@@ -2966,13 +3041,13 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A34" s="13" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D34" s="9">
         <v>1</v>
@@ -2987,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="I34" s="9">
         <v>100</v>
@@ -2999,13 +3074,13 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A35" s="10" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D35" s="11">
         <v>1</v>
@@ -3020,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="I35" s="11">
         <v>100</v>
@@ -3032,13 +3107,13 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A36" s="13" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
@@ -3053,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I36" s="9">
         <v>100</v>
@@ -3065,13 +3140,13 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A37" s="10" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -3086,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="I37" s="11">
         <v>100</v>
@@ -3098,13 +3173,13 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A38" s="13" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D38" s="9">
         <v>1</v>
@@ -3119,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I38" s="9">
         <v>100</v>
@@ -3131,13 +3206,13 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A39" s="15" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
@@ -3152,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="I39" s="16">
         <v>100</v>

--- a/excels/config/game/rune_system.xlsx
+++ b/excels/config/game/rune_system.xlsx
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/rune_system.xlsx
+++ b/excels/config/game/rune_system.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="164">
   <si>
     <t>key</t>
   </si>
@@ -104,7 +104,9 @@
     <t>pass</t>
   </si>
   <si>
-    <t>skv_count 1</t>
+    <t>skv_count {
+"Base" "1"
+}</t>
   </si>
   <si>
     <t>r_2</t>
@@ -116,7 +118,9 @@
     <t>范围型技能范围+20%</t>
   </si>
   <si>
-    <t>%skv_radius 20</t>
+    <t>skv_radius {
+"Percent" "20"
+}</t>
   </si>
   <si>
     <t>r_3</t>
@@ -128,7 +132,9 @@
     <t>持续型技能持续时间+1秒</t>
   </si>
   <si>
-    <t>skv_duration 1</t>
+    <t>skv_duration {
+"Base" "1"
+}</t>
   </si>
   <si>
     <t>r_4</t>
@@ -140,7 +146,9 @@
     <t>成长型技能成长效果+20%</t>
   </si>
   <si>
-    <t>%skv_growth 20</t>
+    <t>skv_growth {
+"Percent" "20"
+}</t>
   </si>
   <si>
     <t>r_5</t>
@@ -152,7 +160,9 @@
     <t>伤害型技能伤害结果+20%</t>
   </si>
   <si>
-    <t>%skv_damage 20</t>
+    <t>skv_damage {
+"Percent" "20"
+}</t>
   </si>
   <si>
     <t>r_6</t>
@@ -164,7 +174,9 @@
     <t>理财型技能收益效果+20%</t>
   </si>
   <si>
-    <t>%skv_financing 20</t>
+    <t>skv_financing {
+"Percent" "20"
+}</t>
   </si>
   <si>
     <t>r_7</t>
@@ -176,7 +188,9 @@
     <t>防御型技能效果+20%</t>
   </si>
   <si>
-    <t>%skv_defense 20</t>
+    <t>skv_defense {
+"Percent" "20"
+}</t>
   </si>
   <si>
     <t>r_8</t>
@@ -188,7 +202,9 @@
     <t>召唤型技能召唤物存在时间+1秒</t>
   </si>
   <si>
-    <t>skv_summoned_duration 1</t>
+    <t>skv_summoned_duration {
+"Base" "1"
+}</t>
   </si>
   <si>
     <t>r_9</t>
@@ -200,7 +216,9 @@
     <t>收益型技能效果+20%</t>
   </si>
   <si>
-    <t>%skv_income 20</t>
+    <t>skv_income {
+"Percent" "20"
+}</t>
   </si>
   <si>
     <t>r_10</t>
@@ -212,7 +230,9 @@
     <t>技能急速+10</t>
   </si>
   <si>
-    <t>skv_haste 10</t>
+    <t>skv_haste {
+"Base" "10"
+}</t>
   </si>
   <si>
     <t>r_11</t>
@@ -224,9 +244,6 @@
     <t>火元素技能效果+10%</t>
   </si>
   <si>
-    <t>skv_fire 10</t>
-  </si>
-  <si>
     <t>r_12</t>
   </si>
   <si>
@@ -236,9 +253,6 @@
     <t>雷元素技能效果+10%</t>
   </si>
   <si>
-    <t>skv_thunder 10</t>
-  </si>
-  <si>
     <t>r_13</t>
   </si>
   <si>
@@ -248,9 +262,6 @@
     <t>冰元素技能效果+10%</t>
   </si>
   <si>
-    <t>skv_ice 10</t>
-  </si>
-  <si>
     <t>r_14</t>
   </si>
   <si>
@@ -260,9 +271,6 @@
     <t>风元素技能效果+10%</t>
   </si>
   <si>
-    <t>skv_wind 10</t>
-  </si>
-  <si>
     <t>r_15</t>
   </si>
   <si>
@@ -272,9 +280,6 @@
     <t>光元素技能效果+25%</t>
   </si>
   <si>
-    <t>skv_light 25</t>
-  </si>
-  <si>
     <t>r_16</t>
   </si>
   <si>
@@ -282,9 +287,6 @@
   </si>
   <si>
     <t>暗元素技能效果+25%</t>
-  </si>
-  <si>
-    <t>skv_dark 25</t>
   </si>
   <si>
     <t>r_adv_1</t>
@@ -1596,11 +1598,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{8EC74274-C5EA-4004-A452-76E467B71A21}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6CE9A981-DCCD-4358-A75C-3A455CE4171E}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{085B7891-292A-483D-AC19-98E11FAADE8D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4C90E436-261D-40A7-9A2B-095D46284BA4}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -1866,8 +1868,8 @@
   <sheetPr/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1968,7 +1970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="3" s="1" customFormat="1" ht="49.5" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -2004,7 +2006,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="4" s="1" customFormat="1" ht="49.5" spans="1:13">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
@@ -2040,7 +2042,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="5" s="1" customFormat="1" ht="49.5" spans="1:13">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -2076,7 +2078,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="6" s="1" customFormat="1" ht="49.5" spans="1:13">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
@@ -2112,7 +2114,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="19"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="7" s="1" customFormat="1" ht="49.5" spans="1:13">
       <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
@@ -2148,7 +2150,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="8" s="1" customFormat="1" ht="49.5" spans="1:13">
       <c r="A8" s="13" t="s">
         <v>42</v>
       </c>
@@ -2184,7 +2186,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="9" s="1" customFormat="1" ht="49.5" spans="1:13">
       <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
@@ -2220,7 +2222,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="10" s="1" customFormat="1" ht="49.5" spans="1:13">
       <c r="A10" s="13" t="s">
         <v>50</v>
       </c>
@@ -2256,7 +2258,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="11" s="1" customFormat="1" ht="49.5" spans="1:13">
       <c r="A11" s="10" t="s">
         <v>54</v>
       </c>
@@ -2292,7 +2294,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="12" s="1" customFormat="1" ht="49.5" spans="1:13">
       <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
@@ -2358,21 +2360,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -2394,21 +2394,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="19"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -2430,21 +2428,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="20"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A16" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -2466,21 +2462,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="19"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A17" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" s="11">
         <v>0</v>
@@ -2502,21 +2496,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="20"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A18" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -2538,21 +2530,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="19"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A19" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D19" s="11">
         <v>1</v>
@@ -2567,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I19" s="11">
         <v>100</v>
@@ -2579,13 +2569,13 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A20" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -2600,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I20" s="9">
         <v>100</v>
@@ -2612,13 +2602,13 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A21" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D21" s="11">
         <v>1</v>
@@ -2633,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I21" s="11">
         <v>100</v>
@@ -2645,13 +2635,13 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A22" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -2666,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I22" s="9">
         <v>100</v>
@@ -2678,13 +2668,13 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A23" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D23" s="11">
         <v>1</v>
@@ -2699,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I23" s="11">
         <v>100</v>
@@ -2711,13 +2701,13 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A24" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -2732,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I24" s="9">
         <v>100</v>
@@ -2744,13 +2734,13 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A25" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D25" s="11">
         <v>1</v>
@@ -2765,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I25" s="11">
         <v>100</v>
@@ -2777,13 +2767,13 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A26" s="13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -2798,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I26" s="9">
         <v>100</v>
@@ -2810,13 +2800,13 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A27" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
@@ -2831,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I27" s="11">
         <v>100</v>
@@ -2843,13 +2833,13 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A28" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
@@ -2864,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I28" s="9">
         <v>100</v>
@@ -2876,13 +2866,13 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A29" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
@@ -2897,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I29" s="11">
         <v>100</v>
@@ -2909,13 +2899,13 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A30" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
@@ -2930,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I30" s="9">
         <v>100</v>
@@ -2942,13 +2932,13 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A31" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D31" s="11">
         <v>1</v>
@@ -2963,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I31" s="11">
         <v>100</v>
@@ -2975,13 +2965,13 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A32" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
@@ -2996,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I32" s="9">
         <v>100</v>
@@ -3008,13 +2998,13 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:13">
       <c r="A33" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
@@ -3029,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I33" s="11">
         <v>100</v>
@@ -3041,13 +3031,13 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A34" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D34" s="9">
         <v>1</v>
@@ -3062,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I34" s="9">
         <v>100</v>
@@ -3074,13 +3064,13 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A35" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D35" s="11">
         <v>1</v>
@@ -3095,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I35" s="11">
         <v>100</v>
@@ -3107,13 +3097,13 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A36" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
@@ -3128,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I36" s="9">
         <v>100</v>
@@ -3140,13 +3130,13 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A37" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -3161,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I37" s="11">
         <v>100</v>
@@ -3173,13 +3163,13 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:13">
       <c r="A38" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D38" s="9">
         <v>1</v>
@@ -3194,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I38" s="9">
         <v>100</v>
@@ -3206,13 +3196,13 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="35" customHeight="1" spans="1:13">
       <c r="A39" s="15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
@@ -3227,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I39" s="16">
         <v>100</v>
